--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340" tabRatio="500"/>
+    <workbookView windowWidth="18600" windowHeight="6260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>全名</t>
     </r>
     <r>
@@ -82,6 +88,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>是否为位标记枚举（即每个枚举项为位标记数据，例如</t>
     </r>
     <r>
@@ -310,6 +322,36 @@
   <si>
     <t>背包没有这个装备</t>
   </si>
+  <si>
+    <t>MailStateFit</t>
+  </si>
+  <si>
+    <t>邮件状态已读</t>
+  </si>
+  <si>
+    <t>MailNoID</t>
+  </si>
+  <si>
+    <t>找不到该邮件</t>
+  </si>
+  <si>
+    <t>MailNoRewards</t>
+  </si>
+  <si>
+    <t>没有可领取邮件</t>
+  </si>
+  <si>
+    <t>MailHadRewards</t>
+  </si>
+  <si>
+    <t>邮件已被领取</t>
+  </si>
+  <si>
+    <t>MailNoDelete</t>
+  </si>
+  <si>
+    <t>没有可删除邮件</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +363,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -333,12 +375,6 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -829,36 +865,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,101 +909,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,26 +1013,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1389,13 +1416,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.45833333333333" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.45833333333333" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.45833333333333" style="1"/>
     <col min="2" max="2" width="22.5" style="2" customWidth="1"/>
@@ -1446,7 +1473,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -1466,418 +1493,410 @@
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="b">
+      <c r="C5" s="3" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D5" s="9" t="b">
+      <c r="D5" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="3">
         <v>2</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="3">
         <v>3</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="3">
         <v>4</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="3">
         <v>5</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="9" t="b">
+      <c r="C10" s="3" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="9" t="b">
+      <c r="D10" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="3">
         <v>2</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="9" t="b">
+      <c r="C14" s="3" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D14" s="9" t="b">
+      <c r="D14" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="3">
         <v>3</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="9" t="b">
+      <c r="C22" s="3" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D22" s="9" t="b">
+      <c r="D22" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="11" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="7:10">
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="7:10">
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="3">
         <v>2</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1888,7 +1907,7 @@
       <c r="I25" s="2">
         <v>3</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1896,10 +1915,10 @@
       <c r="G26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="3">
         <v>4</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1910,7 +1929,7 @@
       <c r="I27" s="2">
         <v>5</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1918,10 +1937,10 @@
       <c r="G28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="3">
         <v>6</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1932,7 +1951,7 @@
       <c r="I29" s="2">
         <v>7</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1940,10 +1959,10 @@
       <c r="G30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="3">
         <v>8</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1954,7 +1973,7 @@
       <c r="I31" s="2">
         <v>9</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1965,7 +1984,7 @@
       <c r="I32" s="2">
         <v>10</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1976,8 +1995,63 @@
       <c r="I33" s="2">
         <v>11</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="2" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10">
+      <c r="G34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="2">
+        <v>12</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10">
+      <c r="G35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="2">
+        <v>13</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10">
+      <c r="G36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="2">
+        <v>14</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10">
+      <c r="G37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="2">
+        <v>15</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10">
+      <c r="G38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="2">
+        <v>16</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6260" tabRatio="500"/>
+    <workbookView windowWidth="15870" windowHeight="11475" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -246,111 +246,6 @@
   </si>
   <si>
     <t>现金充值</t>
-  </si>
-  <si>
-    <t>ErrorCode</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>ParamInvalid</t>
-  </si>
-  <si>
-    <t>参数错误</t>
-  </si>
-  <si>
-    <t>ConfigError</t>
-  </si>
-  <si>
-    <t>配置错误</t>
-  </si>
-  <si>
-    <t>GoldNotEnough</t>
-  </si>
-  <si>
-    <t>金币不足</t>
-  </si>
-  <si>
-    <t>GemNotEnough</t>
-  </si>
-  <si>
-    <t>宝石不足</t>
-  </si>
-  <si>
-    <t>RechargeFailed</t>
-  </si>
-  <si>
-    <t>充值失败</t>
-  </si>
-  <si>
-    <t>AlreadyEquipped</t>
-  </si>
-  <si>
-    <t>已装备</t>
-  </si>
-  <si>
-    <t>AlreadyUnEquipped</t>
-  </si>
-  <si>
-    <t>已卸载</t>
-  </si>
-  <si>
-    <t>WeaponMaxLevel</t>
-  </si>
-  <si>
-    <t>武器已经满级</t>
-  </si>
-  <si>
-    <t>MaxEquipWeaponCount</t>
-  </si>
-  <si>
-    <t>武器装备已满</t>
-  </si>
-  <si>
-    <t>NeedOneWeapnEquipped</t>
-  </si>
-  <si>
-    <t>最少装备一件武器</t>
-  </si>
-  <si>
-    <t>WithoutWeapon</t>
-  </si>
-  <si>
-    <t>背包没有这个装备</t>
-  </si>
-  <si>
-    <t>MailStateFit</t>
-  </si>
-  <si>
-    <t>邮件状态已读</t>
-  </si>
-  <si>
-    <t>MailNoID</t>
-  </si>
-  <si>
-    <t>找不到该邮件</t>
-  </si>
-  <si>
-    <t>MailNoRewards</t>
-  </si>
-  <si>
-    <t>没有可领取邮件</t>
-  </si>
-  <si>
-    <t>MailHadRewards</t>
-  </si>
-  <si>
-    <t>邮件已被领取</t>
-  </si>
-  <si>
-    <t>MailNoDelete</t>
-  </si>
-  <si>
-    <t>没有可删除邮件</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,9 +918,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -1416,13 +1308,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B22" sqref="$A22:$XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.45833333333333" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.45833333333333" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="8.45833333333333" style="1"/>
     <col min="2" max="2" width="22.5" style="2" customWidth="1"/>
@@ -1554,7 +1446,7 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="3"/>
@@ -1575,7 +1467,7 @@
       <c r="I6" s="3">
         <v>2</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="3"/>
@@ -1596,7 +1488,7 @@
       <c r="I7" s="3">
         <v>3</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="3"/>
@@ -1617,7 +1509,7 @@
       <c r="I8" s="3">
         <v>4</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="3"/>
@@ -1638,7 +1530,7 @@
       <c r="I9" s="3">
         <v>5</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="K9" s="3"/>
@@ -1848,212 +1740,6 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="7:10">
-      <c r="G23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="7:10">
-      <c r="G24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="7:10">
-      <c r="G25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="2">
-        <v>3</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="7:10">
-      <c r="G26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="3">
-        <v>4</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="7:10">
-      <c r="G27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="2">
-        <v>5</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="7:10">
-      <c r="G28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="3">
-        <v>6</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="7:10">
-      <c r="G29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="2">
-        <v>7</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="7:10">
-      <c r="G30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="3">
-        <v>8</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="7:10">
-      <c r="G31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I31" s="2">
-        <v>9</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="7:10">
-      <c r="G32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I32" s="2">
-        <v>10</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="7:10">
-      <c r="G33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I33" s="2">
-        <v>11</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10">
-      <c r="G34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="2">
-        <v>12</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10">
-      <c r="G35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="2">
-        <v>13</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="7:10">
-      <c r="G36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I36" s="2">
-        <v>14</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="7:10">
-      <c r="G37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="2">
-        <v>15</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="7:10">
-      <c r="G38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I38" s="2">
-        <v>16</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
